--- a/Saranya_Assessment18/src/test/resources/LoginExcel.xlsx
+++ b/Saranya_Assessment18/src/test/resources/LoginExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\git\Saranya_Assessment18\Saranya_Assessment18\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026C3604-55F3-48B0-B7E7-2F812DA6E894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0A2624-237F-4078-9D65-FE9AF54BFA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2628" yWindow="1284" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>standard_user</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>no_pass</t>
+  </si>
+  <si>
+    <t>no_user</t>
+  </si>
+  <si>
+    <t>invalid</t>
   </si>
 </sst>
 </file>
@@ -354,9 +366,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -364,30 +378,42 @@
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
